--- a/projects/6/web_simple/Сравнение.xlsx
+++ b/projects/6/web_simple/Сравнение.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\6\web_simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16942E1B-AF66-48BD-869E-3EFD37A5BF71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5524191B-BAF0-43BC-8064-108711685B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Наименование</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>system, web</t>
+  </si>
+  <si>
+    <t>Sanic</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -140,16 +143,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +599,7 @@
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,100 +620,100 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="11">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="11">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="8">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="8">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
+      <c r="E5" s="18">
+        <v>6</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
@@ -568,21 +721,41 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/projects/6/web_simple/Сравнение.xlsx
+++ b/projects/6/web_simple/Сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\6\web_simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5524191B-BAF0-43BC-8064-108711685B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C56C3A-B389-4862-A0A4-5889B334F174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>web</t>
   </si>
   <si>
-    <t>web, scipy, ai, ml, cv</t>
-  </si>
-  <si>
     <t>Gin</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Sanic</t>
+  </si>
+  <si>
+    <t>web, scipy, numpy, ai, ml, cv</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -288,21 +294,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -586,7 +592,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +602,7 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -620,83 +626,83 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9">
         <v>3</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
+      <c r="F2" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
+      <c r="F3" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>7</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>11</v>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="18">
-        <v>6</v>
-      </c>
-      <c r="D5" s="18">
-        <v>8</v>
-      </c>
-      <c r="E5" s="18">
-        <v>6</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -721,10 +727,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>7</v>
@@ -741,10 +747,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -756,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/projects/6/web_simple/Сравнение.xlsx
+++ b/projects/6/web_simple/Сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\6\web_simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C56C3A-B389-4862-A0A4-5889B334F174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4DBEF-238A-40A0-AA2C-88BB5C5DFF0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects/6/web_simple/Сравнение.xlsx
+++ b/projects/6/web_simple/Сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\6\web_simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4DBEF-238A-40A0-AA2C-88BB5C5DFF0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B5226-700E-41CA-BE15-E280145E66B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
